--- a/jp/成績表_固定場所に集計.xlsx
+++ b/jp/成績表_固定場所に集計.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01_SaaSForce\14_開発\説明書\印刷関数説明\テンプレート\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19320" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="成績表" sheetId="1" r:id="rId1"/>
@@ -74,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -197,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +291,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,27 +502,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -521,19 +539,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
